--- a/HuntingBrave_client/DATA/player_data.xlsx
+++ b/HuntingBrave_client/DATA/player_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t xml:space="preserve">攻撃力 </t>
     <phoneticPr fontId="18"/>
@@ -196,31 +196,87 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>神の加護を受け受けた傷を自動で回復する[2秒毎にHP3回復]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>そよ風のごとく軽やかな動きを身に付ける[移動速度1.1倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>相手に幻影を見せ、回避能力を高める[回避時無敵時間UP]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>風を追い抜くスピードを身に付ける[移動速度1.25倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>風の流れに身を任せ回避距離を伸ばす[回避距離UP]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>目にも止まらぬスピードで相手を翻弄する[移動速度1.5倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>影に身を隠し、奇襲を仕掛ける術を学ぶ[4秒停止で透明/移動で解除3秒間与ダメUP]</t>
+    <t>あなたは体重を乗せて攻撃する術を知っている [攻撃+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの攻撃は流れるように放たれる [攻撃+5/攻撃速度Up]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの攻撃は非常に重く強靭だ [攻撃+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは攻撃だけでなく魔法も得意だ [攻撃+10/魔攻+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの肉体は攻守共に文句なしだ [攻撃+10/防御+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの撃つ魔法は一般人よりも強い[魔攻+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの魔弾は針のごとく鋭く飛んでいく [魔攻+5/発射速度UP]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大気中の魔力はあなたの味方になるだろう[魔攻+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの魔弾は爆発を巻き起こす[魔攻+10/着弾時爆発]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの詠唱速度は非常に早く正確だ[魔攻+10/詠唱速度加速]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの肉体は常人よりも硬い[防御+5/HP+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは鉄の盾の如く攻撃を受け止めることができる[防御+10/HP+15]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは皮膚を岩石の様に硬化させる事ができる[防御+5/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは鍛錬の末、鋼の肉体を手に入れた[防御+10/HP+20]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの硬い意思は怯むことすら抑制する[ひるまなくなる]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは魔力を跳ね返す魔法を身体にかけている[魔防+10/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>自らに肉体強化の魔法をかけ強い肉体を手に入れた[魔防+5/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの身体を魔力の障壁が包んでいる[魔防+5/HP+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの薬の知識はアイテムの効率を向上させる[アイテム効果２倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>全ての攻撃に対応できるバリアーを展開する[防御+10/魔防+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神様の気まぐれが、あなたの成長を加速させる[25%の確率で獲得経験値+3]</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -228,95 +284,59 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>あなたは体重を乗せて攻撃する術を知っている [攻撃+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの攻撃は流れるように放たれる [攻撃+5/攻撃速度Up]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの攻撃は非常に重く強靭だ [攻撃+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは攻撃だけでなく魔法も得意だ [攻撃+10/魔攻+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの肉体は攻守共に文句なしだ [攻撃+10/防御+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>傷ついた怒りがあなたを強くさせる[攻撃+10/被ダメ時攻撃1.5倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの撃つ魔法は一般人よりも強い[魔攻+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの魔弾は針のごとく鋭く飛んでいく [魔攻+5/発射速度UP]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>大気中の魔力はあなたの味方になるだろう[魔攻+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの魔弾は爆発を巻き起こす[魔攻+10/着弾時爆発]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの詠唱速度は非常に早く正確だ[魔攻+10/詠唱速度加速]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>上級魔法メテオバーストの習得は一人前の証だ[魔攻+15/3方向攻撃]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの肉体は常人よりも硬い[防御+5/HP+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは鉄の盾の如く攻撃を受け止めることができる[防御+10/HP+15]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは皮膚を岩石の様に硬化させる事ができる[防御+5/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは鍛錬の末、鋼の肉体を手に入れた[防御+10/HP+20]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの硬い意思は怯むことすら抑制する[ひるまなくなる]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>騎士の大盾はどんな攻撃をも受け止める[回避が防御になりダメージ半減]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは魔力を跳ね返す魔法を身体にかけている[魔防+10/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>自らに肉体強化の魔法をかけ強い肉体を手に入れた[魔防+5/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの身体を魔力の障壁が包んでいる[魔防+5/HP+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの薬の知識はアイテムの効率を向上させる[アイテム効果２倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>全ての攻撃に対応できるバリアーを展開する[防御+10/魔防+10]</t>
+    <t>あなたは戦いの中で成長する[獲得経験値+1]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは物を拾うが如く経験を積むことができる[5秒毎に経験値+1]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは手ごわい敵に対しても果敢に戦える[プレイヤー、大型からの経験値+25]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたはそよ風のごとく軽やかだ[移動速度1.1倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの回避には幻影がついてくる[回避時無敵時間UP]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは風をも抜かすほどの瞬足だ[移動速度1.25倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは風の流れに身を任せた回避を習得している[回避距離UP]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神速と呼ばれたあなたを誰も捉えることはできない[移動速度1.5倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>どんな攻撃をも受け止める堅牢な騎士になる[回避が防御になりダメージ半減]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神の加護を受け受けた傷を自動で回復する僧侶になる[2秒毎にHP3回復]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>攻撃すると経験値を盗む事が出来る盗賊になる[攻撃ヒット時経験値+2]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>身を隠し、奇襲を仕掛ける暗殺者になる[4秒停止で透明/移動で解除3秒間与ダメUP]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>上級魔法メテオバーストを習得した魔法使いになる[魔攻+15/3方向攻撃]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>傷ついた怒りを力に変える戦士になる[攻撃+10/被ダメ時攻撃1.5倍]</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1259,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1344,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1370,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1396,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1422,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1448,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1474,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1500,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1526,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1552,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1578,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1604,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1630,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1656,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1682,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1708,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1734,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1760,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1786,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1812,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1838,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1864,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1890,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1916,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1942,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1968,7 +1988,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1994,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -2020,7 +2040,7 @@
         <v>1.25</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -2046,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -2072,7 +2092,7 @@
         <v>1.5</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -2098,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -2124,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -2149,6 +2169,9 @@
       <c r="G34">
         <v>0</v>
       </c>
+      <c r="H34" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
@@ -2172,6 +2195,9 @@
       <c r="G35">
         <v>0</v>
       </c>
+      <c r="H35" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
@@ -2195,6 +2221,9 @@
       <c r="G36">
         <v>0</v>
       </c>
+      <c r="H36" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
@@ -2218,6 +2247,9 @@
       <c r="G37">
         <v>0</v>
       </c>
+      <c r="H37" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
@@ -2240,6 +2272,9 @@
       </c>
       <c r="G38">
         <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/HuntingBrave_client/DATA/player_data.xlsx
+++ b/HuntingBrave_client/DATA/player_data.xlsx
@@ -328,15 +328,15 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>身を隠し、奇襲を仕掛ける暗殺者になる[4秒停止で透明/移動で解除3秒間与ダメUP]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>上級魔法メテオバーストを習得した魔法使いになる[魔攻+15/3方向攻撃]</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>傷ついた怒りを力に変える戦士になる[攻撃+10/被ダメ時攻撃1.5倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>身を隠し、奇襲を仕掛ける暗殺者になる[4秒停止で透明/移動で解除3秒間攻撃２倍]</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">

--- a/HuntingBrave_client/DATA/player_data.xlsx
+++ b/HuntingBrave_client/DATA/player_data.xlsx
@@ -33,310 +33,310 @@
     <t>最大HP</t>
   </si>
   <si>
+    <t>フレーバーテキスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期値		</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>踏み込み斬り</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>疾風斬り</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>重撃</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔力の刃</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>怒りの一撃</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>豪傑の証</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マジックショット</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マジックミサイル</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マギカチャージ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マジカルボム</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ルーンエンハンス</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>メテオバースト</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ガードアップ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ロックウォール</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>アイアンシールド</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>メタルボディ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>頑強の意思</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ザ・フォートレス</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マジックガード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マギカマッシブ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ミラーコーティング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>薬の知識</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>デュアルバリアー</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ホーリーリザレクション</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>移動速度</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>そよ風</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>陽炎</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>疾走</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>無影</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>電光石火</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>完全隠密</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>物覚え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ラッキーヒット</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ラーニング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ねこばば</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大物狙い</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>盗賊の極意</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>無し</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは体重を乗せて攻撃する術を知っている [攻撃+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの攻撃は流れるように放たれる [攻撃+5/攻撃速度Up]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの攻撃は非常に重く強靭だ [攻撃+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは攻撃だけでなく魔法も得意だ [攻撃+10/魔攻+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの肉体は攻守共に文句なしだ [攻撃+10/防御+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの撃つ魔法は一般人よりも強い[魔攻+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの魔弾は針のごとく鋭く飛んでいく [魔攻+5/発射速度UP]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>大気中の魔力はあなたの味方になるだろう[魔攻+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの魔弾は爆発を巻き起こす[魔攻+10/着弾時爆発]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの詠唱速度は非常に早く正確だ[魔攻+10/詠唱速度加速]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの肉体は常人よりも硬い[防御+5/HP+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは鉄の盾の如く攻撃を受け止めることができる[防御+10/HP+15]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは皮膚を岩石の様に硬化させる事ができる[防御+5/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは鍛錬の末、鋼の肉体を手に入れた[防御+10/HP+20]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの硬い意思は怯むことすら抑制する[ひるまなくなる]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは魔力を跳ね返す魔法を身体にかけている[魔防+10/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>自らに肉体強化の魔法をかけ強い肉体を手に入れた[魔防+5/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの身体を魔力の障壁が包んでいる[魔防+5/HP+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの薬の知識はアイテムの効率を向上させる[アイテム効果２倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>全ての攻撃に対応できるバリアーを展開する[防御+10/魔防+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神様の気まぐれが、あなたの成長を加速させる[25%の確率で獲得経験値+3]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>物覚えがいい事を活かして経験値を上昇させる[獲得経験値+1]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは戦いの中で成長する[獲得経験値+1]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは物を拾うが如く経験を積むことができる[5秒毎に経験値+1]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは手ごわい敵に対しても果敢に戦える[プレイヤー、大型からの経験値+25]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたはそよ風のごとく軽やかだ[移動速度1.1倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの回避には幻影がついてくる[回避時無敵時間UP]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは風をも抜かすほどの瞬足だ[移動速度1.25倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたは風の流れに身を任せた回避を習得している[回避距離UP]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神速と呼ばれたあなたを誰も捉えることはできない[移動速度1.5倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>どんな攻撃をも受け止める堅牢な騎士になる[回避が防御になりダメージ半減]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神の加護を受け受けた傷を自動で回復する僧侶になる[2秒毎にHP3回復]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>攻撃すると経験値を盗む事が出来る盗賊になる[攻撃ヒット時経験値+2]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>上級魔法メテオバーストを習得した魔法使いになる[魔攻+15/3方向攻撃]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>傷ついた怒りを力に変える戦士になる[攻撃+10/被ダメ時攻撃1.5倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>身を隠し、奇襲を仕掛ける暗殺者になる[4秒停止で透明/移動で解除3秒間攻撃２倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t xml:space="preserve">名称				</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>フレーバーテキスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初期値		</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>踏み込み斬り</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>疾風斬り</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>重撃</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔力の刃</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>怒りの一撃</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>豪傑の証</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>マジックショット</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>マジックミサイル</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>マギカチャージ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>マジカルボム</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ルーンエンハンス</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>メテオバースト</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ガードアップ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ロックウォール</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>アイアンシールド</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>メタルボディ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>頑強の意思</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ザ・フォートレス</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>マジックガード</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>マギカマッシブ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ミラーコーティング</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>薬の知識</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>デュアルバリアー</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ホーリーリザレクション</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>移動速度</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>そよ風</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>陽炎</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>疾走</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>無影</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>電光石火</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>完全隠密</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>物覚え</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ラッキーヒット</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ラーニング</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ねこばば</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>大物狙い</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>盗賊の極意</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>無し</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは体重を乗せて攻撃する術を知っている [攻撃+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの攻撃は流れるように放たれる [攻撃+5/攻撃速度Up]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの攻撃は非常に重く強靭だ [攻撃+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは攻撃だけでなく魔法も得意だ [攻撃+10/魔攻+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの肉体は攻守共に文句なしだ [攻撃+10/防御+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの撃つ魔法は一般人よりも強い[魔攻+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの魔弾は針のごとく鋭く飛んでいく [魔攻+5/発射速度UP]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>大気中の魔力はあなたの味方になるだろう[魔攻+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの魔弾は爆発を巻き起こす[魔攻+10/着弾時爆発]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの詠唱速度は非常に早く正確だ[魔攻+10/詠唱速度加速]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの肉体は常人よりも硬い[防御+5/HP+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは鉄の盾の如く攻撃を受け止めることができる[防御+10/HP+15]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは皮膚を岩石の様に硬化させる事ができる[防御+5/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは鍛錬の末、鋼の肉体を手に入れた[防御+10/HP+20]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの硬い意思は怯むことすら抑制する[ひるまなくなる]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは魔力を跳ね返す魔法を身体にかけている[魔防+10/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>自らに肉体強化の魔法をかけ強い肉体を手に入れた[魔防+5/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの身体を魔力の障壁が包んでいる[魔防+5/HP+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの薬の知識はアイテムの効率を向上させる[アイテム効果２倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>全ての攻撃に対応できるバリアーを展開する[防御+10/魔防+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神様の気まぐれが、あなたの成長を加速させる[25%の確率で獲得経験値+3]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>物覚えがいい事を活かして経験値を上昇させる[獲得経験値+1]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは戦いの中で成長する[獲得経験値+1]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは物を拾うが如く経験を積むことができる[5秒毎に経験値+1]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは手ごわい敵に対しても果敢に戦える[プレイヤー、大型からの経験値+25]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたはそよ風のごとく軽やかだ[移動速度1.1倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの回避には幻影がついてくる[回避時無敵時間UP]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは風をも抜かすほどの瞬足だ[移動速度1.25倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは風の流れに身を任せた回避を習得している[回避距離UP]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神速と呼ばれたあなたを誰も捉えることはできない[移動速度1.5倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>どんな攻撃をも受け止める堅牢な騎士になる[回避が防御になりダメージ半減]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神の加護を受け受けた傷を自動で回復する僧侶になる[2秒毎にHP3回復]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>攻撃すると経験値を盗む事が出来る盗賊になる[攻撃ヒット時経験値+2]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>上級魔法メテオバーストを習得した魔法使いになる[魔攻+15/3方向攻撃]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>傷ついた怒りを力に変える戦士になる[攻撃+10/被ダメ時攻撃1.5倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>身を隠し、奇襲を仕掛ける暗殺者になる[4秒停止で透明/移動で解除3秒間攻撃２倍]</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1279,19 +1279,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="8" max="8" width="68.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1309,15 +1309,15 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1338,12 +1338,12 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1364,12 +1364,12 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1390,12 +1390,12 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -1416,12 +1416,12 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1442,12 +1442,12 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1468,12 +1468,12 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -1494,12 +1494,12 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1520,12 +1520,12 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1546,12 +1546,12 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1572,12 +1572,12 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1598,12 +1598,12 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1624,12 +1624,12 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1650,12 +1650,12 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1676,12 +1676,12 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1702,12 +1702,12 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1728,12 +1728,12 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1754,12 +1754,12 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1780,12 +1780,12 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1806,12 +1806,12 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1832,12 +1832,12 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1858,12 +1858,12 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1884,12 +1884,12 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1910,12 +1910,12 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1936,12 +1936,12 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1962,12 +1962,12 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1988,12 +1988,12 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2014,12 +2014,12 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2040,12 +2040,12 @@
         <v>1.25</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -2066,12 +2066,12 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2092,12 +2092,12 @@
         <v>1.5</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2118,12 +2118,12 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2144,12 +2144,12 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2170,12 +2170,12 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2196,12 +2196,12 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2222,12 +2222,12 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2248,12 +2248,12 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/HuntingBrave_client/DATA/player_data.xlsx
+++ b/HuntingBrave_client/DATA/player_data.xlsx
@@ -328,15 +328,15 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>傷ついた怒りを力に変える戦士になる[攻撃+10/被ダメ時攻撃1.5倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>身を隠し、奇襲を仕掛ける暗殺者になる[4秒停止で透明/移動で解除3秒間攻撃２倍]</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t xml:space="preserve">名称				</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>傷ついた怒りを力に変える戦士になる[攻撃+10/被ダメージ時攻撃1.5倍]</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1291,7 +1291,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">

--- a/HuntingBrave_client/DATA/player_data.xlsx
+++ b/HuntingBrave_client/DATA/player_data.xlsx
@@ -224,10 +224,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>あなたの魔弾は爆発を巻き起こす[魔攻+10/着弾時爆発]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>あなたの詠唱速度は非常に早く正確だ[魔攻+10/詠唱速度加速]</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -337,6 +333,10 @@
   </si>
   <si>
     <t>傷ついた怒りを力に変える戦士になる[攻撃+10/被ダメージ時攻撃1.5倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あなたの魔弾は爆発を巻き起こす[魔攻+10]</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1279,9 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1291,7 +1289,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1494,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1598,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1624,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1650,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1676,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1702,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1728,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1754,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1780,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1806,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1832,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1858,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1884,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1910,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1936,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1962,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1988,7 +1986,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -2014,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -2040,7 +2038,7 @@
         <v>1.25</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -2066,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -2092,7 +2090,7 @@
         <v>1.5</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -2118,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -2144,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -2170,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -2196,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -2222,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -2248,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -2274,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/HuntingBrave_client/DATA/player_data.xlsx
+++ b/HuntingBrave_client/DATA/player_data.xlsx
@@ -192,82 +192,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>あなたは体重を乗せて攻撃する術を知っている [攻撃+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの攻撃は流れるように放たれる [攻撃+5/攻撃速度Up]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの攻撃は非常に重く強靭だ [攻撃+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは攻撃だけでなく魔法も得意だ [攻撃+10/魔攻+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの肉体は攻守共に文句なしだ [攻撃+10/防御+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの撃つ魔法は一般人よりも強い[魔攻+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの魔弾は針のごとく鋭く飛んでいく [魔攻+5/発射速度UP]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>大気中の魔力はあなたの味方になるだろう[魔攻+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの詠唱速度は非常に早く正確だ[魔攻+10/詠唱速度加速]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの肉体は常人よりも硬い[防御+5/HP+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは鉄の盾の如く攻撃を受け止めることができる[防御+10/HP+15]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは皮膚を岩石の様に硬化させる事ができる[防御+5/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは鍛錬の末、鋼の肉体を手に入れた[防御+10/HP+20]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの硬い意思は怯むことすら抑制する[ひるまなくなる]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは魔力を跳ね返す魔法を身体にかけている[魔防+10/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>自らに肉体強化の魔法をかけ強い肉体を手に入れた[魔防+5/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの身体を魔力の障壁が包んでいる[魔防+5/HP+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの薬の知識はアイテムの効率を向上させる[アイテム効果２倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>全ての攻撃に対応できるバリアーを展開する[防御+10/魔防+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>神様の気まぐれが、あなたの成長を加速させる[25%の確率で獲得経験値+3]</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -288,55 +212,131 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>あなたはそよ風のごとく軽やかだ[移動速度1.1倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの回避には幻影がついてくる[回避時無敵時間UP]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは風をも抜かすほどの瞬足だ[移動速度1.25倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは風の流れに身を任せた回避を習得している[回避距離UP]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神速と呼ばれたあなたを誰も捉えることはできない[移動速度1.5倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>どんな攻撃をも受け止める堅牢な騎士になる[回避が防御になりダメージ半減]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神の加護を受け受けた傷を自動で回復する僧侶になる[2秒毎にHP3回復]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>攻撃すると経験値を盗む事が出来る盗賊になる[攻撃ヒット時経験値+2]</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>上級魔法メテオバーストを習得した魔法使いになる[魔攻+15/3方向攻撃]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>身を隠し、奇襲を仕掛ける暗殺者になる[4秒停止で透明/移動で解除3秒間攻撃２倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t xml:space="preserve">名称				</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>傷ついた怒りを力に変える戦士になる[攻撃+10/被ダメージ時攻撃1.5倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたの魔弾は爆発を巻き起こす[魔攻+10]</t>
+    <t>剣を振るスピードがだんだん早くなってきた [攻撃+5/攻撃速度Up]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>特訓の末、踏み込み切りを覚えた [攻撃+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ちょっとは魔法の勉強もしておこう [攻撃+10/魔攻+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ねんがんの　ムキムキボデーを　てにいれた！ [攻撃+10/防御+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>傷ついた怒りを力に変える戦士に転職！[攻撃+10/被ダメージ時攻撃1.5倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔術書を読みあさってちょっと賢くなった[魔攻+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>気がついたら魔法が進化していた！ [魔攻+5/発射速度UP]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔力の高まりを感じる！[魔攻+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>生麦生米生卵！早口言葉で詠唱も素早く！[魔攻+10/詠唱速度加速]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>上級魔法を覚えた魔法使いに転職！[魔攻+15/3方向攻撃]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>攻撃を防ぐ方法を特訓した[防御+5/HP+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>石のようなガチガチボディ！！[防御+5/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鉄なんて甘っちょろい、鋼を超えたハイパーボディ[防御+10/HP+20]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鍛錬の末、とうとう心まで硬くなった[ひるまなくなる]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>身体の硬さは鉄を超越した[防御+10/HP+15]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>攻撃魔法より防御魔法を勉強した[魔防+5/HP+5]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ドーピング？いえ、魔法での肉体強化です[魔防+5/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔力を受け流すように身体をコーティングした！[魔防+10/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>色んな薬の効能を頭に叩き込んだ！[魔防+5/アイテム効果２倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>全ての攻撃に対応できるバリアーを展開できた！[防御+10/魔防+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>どんな攻撃をも受け止める騎士に転職！[回避が防御になりダメージ半減]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神の加護で受けた傷を自動で回復する僧侶に転職！[2秒毎にHP3回復]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>まずは、そよ風を追い越してみよう[移動速度1.1倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>「フッ、それは残像だ」が実現した！[回避時無敵時間UP]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>風を追い抜かすことに成功！！[移動速度1.25倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>風を読み更に回避が得意になった！[回避距離UP]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あらゆる風を追い抜かし、遂に世界最速となった[移動速度1.5倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>身を隠し、闇討ちする暗殺者に転職！[4秒停止で透明/移動で解除3秒間攻撃２倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>攻撃をする度に筋肉増えるね！ [攻撃+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>芸術は爆発だ　魔術も爆発だ！[魔攻+10]</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1279,7 +1279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1289,7 +1291,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1362,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1414,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1440,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -1466,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1492,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1518,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1544,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1570,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1648,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1674,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1700,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1726,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1778,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1804,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1830,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1856,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1882,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1908,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1934,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1960,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1986,7 +1988,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H27" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -2012,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -2038,7 +2040,7 @@
         <v>1.25</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -2064,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -2090,7 +2092,7 @@
         <v>1.5</v>
       </c>
       <c r="H31" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -2116,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -2142,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -2168,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -2194,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -2220,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -2246,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
@@ -2272,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/HuntingBrave_client/DATA/player_data.xlsx
+++ b/HuntingBrave_client/DATA/player_data.xlsx
@@ -236,10 +236,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>傷ついた怒りを力に変える戦士に転職！[攻撃+10/被ダメージ時攻撃1.5倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>魔術書を読みあさってちょっと賢くなった[魔攻+5]</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -304,10 +300,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>神の加護で受けた傷を自動で回復する僧侶に転職！[2秒毎にHP3回復]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>まずは、そよ風を追い越してみよう[移動速度1.1倍]</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -337,6 +329,14 @@
   </si>
   <si>
     <t>芸術は爆発だ　魔術も爆発だ！[魔攻+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>怒りを力に変える戦士に転職！[攻撃+10/被ダメージ時攻撃1.5倍]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神の加護で受けた僧侶に転職！[2秒毎にHP3回復]</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1988,7 +1988,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -2040,7 +2040,7 @@
         <v>1.25</v>
       </c>
       <c r="H29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -2092,7 +2092,7 @@
         <v>1.5</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">

--- a/HuntingBrave_client/DATA/player_data.xlsx
+++ b/HuntingBrave_client/DATA/player_data.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="player_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t xml:space="preserve">攻撃力 </t>
     <phoneticPr fontId="18"/>
@@ -164,179 +164,151 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>物覚え</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ラッキーヒット</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ラーニング</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ねこばば</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>大物狙い</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>盗賊の極意</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>無し</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>神様の気まぐれが、あなたの成長を加速させる[25%の確率で獲得経験値+3]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>物覚えがいい事を活かして経験値を上昇させる[獲得経験値+1]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは戦いの中で成長する[獲得経験値+1]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは物を拾うが如く経験を積むことができる[5秒毎に経験値+1]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あなたは手ごわい敵に対しても果敢に戦える[プレイヤー、大型からの経験値+25]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>攻撃すると経験値を盗む事が出来る盗賊になる[攻撃ヒット時経験値+2]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t xml:space="preserve">名称				</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>剣を振るスピードがだんだん早くなってきた [攻撃+5/攻撃速度Up]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>特訓の末、踏み込み切りを覚えた [攻撃+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ちょっとは魔法の勉強もしておこう [攻撃+10/魔攻+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ねんがんの　ムキムキボデーを　てにいれた！ [攻撃+10/防御+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔術書を読みあさってちょっと賢くなった[魔攻+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>気がついたら魔法が進化していた！ [魔攻+5/発射速度UP]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔力の高まりを感じる！[魔攻+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>生麦生米生卵！早口言葉で詠唱も素早く！[魔攻+10/詠唱速度加速]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>上級魔法を覚えた魔法使いに転職！[魔攻+15/3方向攻撃]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>攻撃を防ぐ方法を特訓した[防御+5/HP+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>石のようなガチガチボディ！！[防御+5/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>鉄なんて甘っちょろい、鋼を超えたハイパーボディ[防御+10/HP+20]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>鍛錬の末、とうとう心まで硬くなった[ひるまなくなる]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>身体の硬さは鉄を超越した[防御+10/HP+15]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>攻撃魔法より防御魔法を勉強した[魔防+5/HP+5]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ドーピング？いえ、魔法での肉体強化です[魔防+5/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔力を受け流すように身体をコーティングした！[魔防+10/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>色んな薬の効能を頭に叩き込んだ！[魔防+5/アイテム効果２倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>全ての攻撃に対応できるバリアーを展開できた！[防御+10/魔防+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>どんな攻撃をも受け止める騎士に転職！[回避が防御になりダメージ半減]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>まずは、そよ風を追い越してみよう[移動速度1.1倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>「フッ、それは残像だ」が実現した！[回避時無敵時間UP]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>風を追い抜かすことに成功！！[移動速度1.25倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>風を読み更に回避が得意になった！[回避距離UP]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あらゆる風を追い抜かし、遂に世界最速となった[移動速度1.5倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>身を隠し、闇討ちする暗殺者に転職！[4秒停止で透明/移動で解除3秒間攻撃２倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>攻撃をする度に筋肉増えるね！ [攻撃+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>芸術は爆発だ　魔術も爆発だ！[魔攻+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>怒りを力に変える戦士に転職！[攻撃+10/被ダメージ時攻撃1.5倍]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神の加護で受けた僧侶に転職！[2秒毎にHP3回復]</t>
+    <t>ファイター合計</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>マジシャン合計</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ナイト合計</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>プリースト合計</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>アサシン合計</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>石のようなガチガチボディ！！[防御+5/魔攻-10/HP+10]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>特訓の末、踏み込み切りを覚えた [UP/攻撃小]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>攻撃をする度に筋肉増えるね！ [UP/攻撃中 防御小]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ちょっとは魔法の勉強もしておこう [UP/攻撃中 魔攻小 魔防小]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ねんがんの　ムキムキボデーを　てにいれた！ [UP/攻撃大 防御大]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>剣を振るスピードがだんだん早くなってきた [UP/攻撃中・DOWN/防御小]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>怒りを力に変える戦士に転職！[UP/攻撃特大 HP大・DOWN/魔防中]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔術書を読みあさってちょっと賢くなった[UP/魔攻小]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>気がついたら魔法が進化していた！ [UP/魔攻中・DOWN/HP小]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔力の高まりを感じる！[UP/魔攻中 魔防中・DOWN/攻撃小]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>芸術は爆発だ　魔術も爆発だ！[UP/魔攻特大・DOWN/防御中 魔防中]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔力を集中させ、攻防を一体のものにできた！[UP/魔攻大 魔防大]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>上級魔法を覚えた魔法使いに転職！[UP/魔攻超特大 魔防大・DOWN/HP特大]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>攻撃を防ぐ方法を特訓した[UP/防御小]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>身体の硬さは鉄を超越した[UP/防御中 HP大・DOWN/攻撃小 魔攻中]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鉄なんて甘っちょろい、鋼を超えたハイパーボディ[UP/防御中 HP大・DOWN/攻撃中]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鍛錬の末、とうとう心まで硬くなった[UP/防御大 HP大]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>攻撃魔法より防御魔法を勉強した[UP/魔防小]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ドーピング？いえ、魔法での肉体強化です[UP/魔防小 HP中・DOWN/攻撃中]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>色んな薬の効能を頭に叩き込んだ！[魔防大]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔力を受け流すように身体をコーティングした！[UP/魔防中 HP中・DOWN/魔攻小</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>どんな攻撃をも受け止める騎士に転職！[UP/防御大 HP特大・DOWN/魔攻中]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>全ての攻撃に対応できるバリアーを展開できた！[UP/防御大 魔防大]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神の加護で受けた僧侶に転職！[UP/魔防超特大・DOWN/攻撃大]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>まずは、そよ風を追い越してみよう[UP/移動速度小]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>風を追い抜かすことに成功！！[UP/移動速度中]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あらゆる風を追い抜かし、遂に世界最速となった[UP/移動速度大]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>身を隠し、闇討ちする暗殺者に転職！[UP/攻撃特大 防御大 魔攻中・DOWN/HP大]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>風をも切り裂くかまいたちが攻撃に宿る！[UP/攻撃大]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>流れる風の如く相手を切り裂く術を覚えた[攻撃小]</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1277,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1289,9 +1261,9 @@
     <col min="8" max="8" width="68.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1315,7 +1287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1338,70 +1310,71 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <f>SUM(B4:F4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>8</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>9</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1416,21 +1389,25 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I37" si="0">SUM(B5:F5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1442,24 +1419,28 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1468,116 +1449,130 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>-10</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>SUM(B10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>14</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>16</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1592,21 +1587,25 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1615,7 +1614,7 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1624,661 +1623,866 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>-10</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>-10</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>-40</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>SUM(B17:G17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>-10</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>-5</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>-10</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="I20">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>-10</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>20</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="D23">
+        <v>-10</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>SUM(B24:G24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>-10</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
         <v>10</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>-5</v>
+      </c>
+      <c r="E27">
         <v>10</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>-20</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>70</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>SUM(B31:G31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1.25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1.5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
         <v>10</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>20</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>-20</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <f>SUM(B2:B9)</f>
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:F39" si="1">SUM(C2:C9)</f>
         <v>25</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22">
+      <c r="D39">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="G39">
+        <f>SUM(B39:F39)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <f>SUM(B2,B11:B16)</f>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:F40" si="2">SUM(C2,C11:C16)</f>
+        <v>-5</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40:G43" si="3">SUM(B40:F40)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <f>SUM(B2,B18:B23)</f>
+        <v>-10</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:F41" si="4">SUM(C2,C18:C23)</f>
+        <v>75</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>-25</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <f>SUM(B2,B25:B30)</f>
+        <v>-25</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:F42" si="5">SUM(C2,C25:C30)</f>
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <f>SUM(B2,B32:B37)</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1.25</v>
-      </c>
-      <c r="H29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>1.5</v>
-      </c>
-      <c r="H31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>50</v>
+      <c r="C43">
+        <f t="shared" ref="C43:F43" si="6">SUM(C2,C32:C37)</f>
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B39" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/HuntingBrave_client/DATA/player_data.xlsx
+++ b/HuntingBrave_client/DATA/player_data.xlsx
@@ -192,74 +192,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>石のようなガチガチボディ！！[防御+5/魔攻-10/HP+10]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>特訓の末、踏み込み切りを覚えた [UP/攻撃小]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>攻撃をする度に筋肉増えるね！ [UP/攻撃中 防御小]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ちょっとは魔法の勉強もしておこう [UP/攻撃中 魔攻小 魔防小]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ねんがんの　ムキムキボデーを　てにいれた！ [UP/攻撃大 防御大]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>剣を振るスピードがだんだん早くなってきた [UP/攻撃中・DOWN/防御小]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>怒りを力に変える戦士に転職！[UP/攻撃特大 HP大・DOWN/魔防中]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔術書を読みあさってちょっと賢くなった[UP/魔攻小]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>気がついたら魔法が進化していた！ [UP/魔攻中・DOWN/HP小]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔力の高まりを感じる！[UP/魔攻中 魔防中・DOWN/攻撃小]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>芸術は爆発だ　魔術も爆発だ！[UP/魔攻特大・DOWN/防御中 魔防中]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔力を集中させ、攻防を一体のものにできた！[UP/魔攻大 魔防大]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>上級魔法を覚えた魔法使いに転職！[UP/魔攻超特大 魔防大・DOWN/HP特大]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>攻撃を防ぐ方法を特訓した[UP/防御小]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>身体の硬さは鉄を超越した[UP/防御中 HP大・DOWN/攻撃小 魔攻中]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>鉄なんて甘っちょろい、鋼を超えたハイパーボディ[UP/防御中 HP大・DOWN/攻撃中]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>鍛錬の末、とうとう心まで硬くなった[UP/防御大 HP大]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>攻撃魔法より防御魔法を勉強した[UP/魔防小]</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -309,6 +241,74 @@
   </si>
   <si>
     <t>流れる風の如く相手を切り裂く術を覚えた[攻撃小]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>剣を振るスピードがだんだん早くなってきた [攻撃とHPがアップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>攻撃をする度に筋肉増えるね！ [攻撃と防御とHPがアップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ちょっとは魔法の勉強もしておこう [攻撃と魔攻が超アップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ねんがんの　ムキムキボデーを　てにいれた！ [攻撃と防御とHPが超アップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>怒りを力に変える戦士に転職！[攻撃とHPが超絶UP！！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔術書を読みあさってちょっと賢くなった[魔攻がすこしアップ]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>特訓の末、踏み込み切りを覚えた [攻撃がすこしアップ]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>気がついたら魔法が進化していた！ [魔攻と魔防がアップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔力の高まりを感じる！[魔攻とHPがアップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鍛錬の末、とうとう心まで硬くなった[防御と魔防とHPが超UP！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>身体の硬さは鉄を超越した[防御とHPがアップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>攻撃を防ぐ方法を特訓した[防御がすこしアップ]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>上級魔法を覚えた魔法使いに転職！[魔攻が超絶×２アップ！！！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔力を集中させ、攻防を一体のものにできた！[防御と魔攻と魔防が超アップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>芸術は爆発だ　魔術も爆発だ！[攻撃と魔攻がアップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>石のようなガチガチボディ！！[防御とHPがアップ]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>鉄なんて甘っちょろい、鋼を超えたハイパーボディ[攻撃と防御とHPがアップ]</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1252,7 +1252,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1344,26 +1344,26 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <f>SUM(B4:F4)</f>
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1374,26 +1374,26 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I37" si="0">SUM(B5:F5)</f>
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1404,26 +1404,26 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1431,29 +1431,29 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1467,23 +1467,23 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1494,26 +1494,26 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1545,29 +1545,29 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1575,29 +1575,29 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -1605,29 +1605,29 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -1635,29 +1635,29 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -1665,29 +1665,29 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>20</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1695,29 +1695,29 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>20</v>
       </c>
       <c r="F16">
-        <v>-40</v>
+        <v>20</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1749,29 +1749,29 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1779,29 +1779,29 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
       <c r="D19">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1809,29 +1809,29 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1839,29 +1839,29 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>10</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1869,29 +1869,29 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
         <v>20</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
       <c r="F22">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1905,23 +1905,23 @@
         <v>20</v>
       </c>
       <c r="D23">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
@@ -1983,7 +1983,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2001,11 +2001,11 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -2031,11 +2031,11 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
@@ -2232,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
@@ -2319,17 +2319,17 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2338,27 +2338,27 @@
       </c>
       <c r="B39">
         <f>SUM(B2:B9)</f>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:F39" si="1">SUM(C2:C9)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="G39">
         <f>SUM(B39:F39)</f>
-        <v>255</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2367,11 +2367,11 @@
       </c>
       <c r="B40">
         <f>SUM(B2,B11:B16)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:F40" si="2">SUM(C2,C11:C16)</f>
-        <v>-5</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
@@ -2379,15 +2379,15 @@
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="G40">
         <f t="shared" ref="G40:G43" si="3">SUM(B40:F40)</f>
-        <v>255</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2396,27 +2396,27 @@
       </c>
       <c r="B41">
         <f>SUM(B2,B18:B23)</f>
-        <v>-10</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:F41" si="4">SUM(C2,C18:C23)</f>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>-25</v>
+        <v>19</v>
       </c>
       <c r="E41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="G41">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B42">
         <f>SUM(B2,B25:B30)</f>
-        <v>-25</v>
+        <v>-15</v>
       </c>
       <c r="C42">
         <f t="shared" ref="C42:F42" si="5">SUM(C2,C25:C30)</f>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <f t="shared" si="5"/>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2470,11 +2470,11 @@
       </c>
       <c r="F43">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/HuntingBrave_client/DATA/player_data.xlsx
+++ b/HuntingBrave_client/DATA/player_data.xlsx
@@ -192,58 +192,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>攻撃魔法より防御魔法を勉強した[UP/魔防小]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ドーピング？いえ、魔法での肉体強化です[UP/魔防小 HP中・DOWN/攻撃中]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>色んな薬の効能を頭に叩き込んだ！[魔防大]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔力を受け流すように身体をコーティングした！[UP/魔防中 HP中・DOWN/魔攻小</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>どんな攻撃をも受け止める騎士に転職！[UP/防御大 HP特大・DOWN/魔攻中]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>全ての攻撃に対応できるバリアーを展開できた！[UP/防御大 魔防大]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神の加護で受けた僧侶に転職！[UP/魔防超特大・DOWN/攻撃大]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>まずは、そよ風を追い越してみよう[UP/移動速度小]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>風を追い抜かすことに成功！！[UP/移動速度中]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あらゆる風を追い抜かし、遂に世界最速となった[UP/移動速度大]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>身を隠し、闇討ちする暗殺者に転職！[UP/攻撃特大 防御大 魔攻中・DOWN/HP大]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>風をも切り裂くかまいたちが攻撃に宿る！[UP/攻撃大]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>流れる風の如く相手を切り裂く術を覚えた[攻撃小]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>剣を振るスピードがだんだん早くなってきた [攻撃とHPがアップ！]</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -309,6 +257,58 @@
   </si>
   <si>
     <t>鉄なんて甘っちょろい、鋼を超えたハイパーボディ[攻撃と防御とHPがアップ]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>攻撃魔法より防御魔法を勉強した[魔防がすこしアップ]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ドーピング？いえ、魔法での肉体強化です[魔防とHPがアップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>魔力を受け流すように身体をコーティングした！[防御と魔防とHPがアップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ふしぎなくすりを　のまされた！[魔攻と魔防とHPをアップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>全ての攻撃に対応できるバリアーを展開できた！[防御と魔防が超アップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>どんな攻撃をも受け止める騎士に転職！[防御と魔防とHPが超絶UP！！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>まずは、そよ風を追い越してみよう[移動速度がすこしアップ]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>流れる風の如く相手を切り裂く術を覚えた[攻撃がアップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>風を追い抜かすことに成功！！[移動速度がアップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>あらゆる風を追い抜かし、遂に世界最速となった[移動速度が超アップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>風をも切り裂くかまいたちが攻撃に宿る！[攻撃がアップ！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>身を隠し、闇討ちする暗殺者に転職！[移動速度が超絶アップ！！]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>神の加護で受けた僧侶に転職！[魔防が超絶×２アップ！！！]</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I4">
         <f>SUM(B4:F4)</f>
@@ -1389,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I37" si="0">SUM(B5:F5)</f>
+        <f t="shared" ref="I5:I38" si="0">SUM(B5:F5)</f>
         <v>36</v>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -1440,7 +1440,7 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1449,11 +1449,11 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
         <v>60</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1464,7 +1464,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1479,11 +1479,11 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1494,10 +1494,10 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1509,11 +1509,11 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
@@ -1665,17 +1665,17 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="D15">
+        <v>35</v>
+      </c>
+      <c r="E15">
         <v>25</v>
       </c>
-      <c r="E15">
-        <v>20</v>
-      </c>
       <c r="F15">
         <v>10</v>
       </c>
@@ -1683,11 +1683,11 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -1701,7 +1701,7 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E16">
         <v>20</v>
@@ -1713,11 +1713,11 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1761,17 +1761,17 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1782,26 +1782,26 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1821,17 +1821,17 @@
         <v>3</v>
       </c>
       <c r="F20">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
@@ -1872,13 +1872,13 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F22">
         <v>50</v>
@@ -1887,11 +1887,11 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1899,16 +1899,16 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F23">
         <v>70</v>
@@ -1917,11 +1917,11 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1953,29 +1953,29 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1983,29 +1983,29 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -2013,29 +2013,29 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2043,29 +2043,29 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>20</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2073,29 +2073,29 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>25</v>
+      </c>
+      <c r="F29">
         <v>20</v>
       </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>20</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2103,29 +2103,29 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>-20</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2157,29 +2157,29 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G32">
         <v>1.5</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -2187,29 +2187,29 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -2217,29 +2217,29 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -2247,29 +2247,29 @@
         <v>35</v>
       </c>
       <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
         <v>20</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2277,29 +2277,29 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G36">
         <v>2.5</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2307,29 +2307,49 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>20</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G37">
         <v>2.8</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -2346,11 +2366,11 @@
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
@@ -2358,7 +2378,7 @@
       </c>
       <c r="G39">
         <f>SUM(B39:F39)</f>
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2367,7 +2387,7 @@
       </c>
       <c r="B40">
         <f>SUM(B2,B11:B16)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <f t="shared" ref="C40:F40" si="2">SUM(C2,C11:C16)</f>
@@ -2375,11 +2395,11 @@
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
@@ -2387,7 +2407,7 @@
       </c>
       <c r="G40">
         <f t="shared" ref="G40:G43" si="3">SUM(B40:F40)</f>
-        <v>501</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -2396,27 +2416,27 @@
       </c>
       <c r="B41">
         <f>SUM(B2,B18:B23)</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <f t="shared" ref="C41:F41" si="4">SUM(C2,C18:C23)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E41">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="G41">
         <f t="shared" si="3"/>
-        <v>517</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2425,27 +2445,27 @@
       </c>
       <c r="B42">
         <f>SUM(B2,B25:B30)</f>
-        <v>-15</v>
+        <v>37</v>
       </c>
       <c r="C42">
         <f t="shared" ref="C42:F42" si="5">SUM(C2,C25:C30)</f>
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D42">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E42">
         <f t="shared" si="5"/>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F42">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="G42">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2454,27 +2474,27 @@
       </c>
       <c r="B43">
         <f>SUM(B2,B32:B37)</f>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C43">
         <f t="shared" ref="C43:F43" si="6">SUM(C2,C32:C37)</f>
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D43">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E43">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="F43">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/HuntingBrave_client/DATA/player_data.xlsx
+++ b/HuntingBrave_client/DATA/player_data.xlsx
@@ -16,14 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
-    <t xml:space="preserve">攻撃力 </t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>防御力</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>魔攻撃</t>
   </si>
   <si>
@@ -34,142 +26,6 @@
   </si>
   <si>
     <t>フレーバーテキスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">初期値		</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>踏み込み斬り</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>疾風斬り</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>重撃</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔力の刃</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>怒りの一撃</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>豪傑の証</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>マジックショット</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>マジックミサイル</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>マギカチャージ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>マジカルボム</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ルーンエンハンス</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>メテオバースト</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ガードアップ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ロックウォール</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>アイアンシールド</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>メタルボディ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>頑強の意思</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ザ・フォートレス</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>マジックガード</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>マギカマッシブ</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ミラーコーティング</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>薬の知識</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>デュアルバリアー</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ホーリーリザレクション</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>移動速度</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>そよ風</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>陽炎</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>疾走</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>無影</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>電光石火</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>完全隠密</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>無し</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve">名称				</t>
-    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>ファイター合計</t>
@@ -192,124 +48,202 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>剣を振るスピードがだんだん早くなってきた [攻撃とHPがアップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>攻撃をする度に筋肉増えるね！ [攻撃と防御とHPがアップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ちょっとは魔法の勉強もしておこう [攻撃と魔攻が超アップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ねんがんの　ムキムキボデーを　てにいれた！ [攻撃と防御とHPが超アップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>怒りを力に変える戦士に転職！[攻撃とHPが超絶UP！！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔術書を読みあさってちょっと賢くなった[魔攻がすこしアップ]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>特訓の末、踏み込み切りを覚えた [攻撃がすこしアップ]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>気がついたら魔法が進化していた！ [魔攻と魔防がアップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔力の高まりを感じる！[魔攻とHPがアップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>鍛錬の末、とうとう心まで硬くなった[防御と魔防とHPが超UP！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>身体の硬さは鉄を超越した[防御とHPがアップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>攻撃を防ぐ方法を特訓した[防御がすこしアップ]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>上級魔法を覚えた魔法使いに転職！[魔攻が超絶×２アップ！！！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔力を集中させ、攻防を一体のものにできた！[防御と魔攻と魔防が超アップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>芸術は爆発だ　魔術も爆発だ！[攻撃と魔攻がアップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>石のようなガチガチボディ！！[防御とHPがアップ]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>鉄なんて甘っちょろい、鋼を超えたハイパーボディ[攻撃と防御とHPがアップ]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>攻撃魔法より防御魔法を勉強した[魔防がすこしアップ]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ドーピング？いえ、魔法での肉体強化です[魔防とHPがアップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>魔力を受け流すように身体をコーティングした！[防御と魔防とHPがアップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ふしぎなくすりを　のまされた！[魔攻と魔防とHPをアップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>全ての攻撃に対応できるバリアーを展開できた！[防御と魔防が超アップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>どんな攻撃をも受け止める騎士に転職！[防御と魔防とHPが超絶UP！！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>まずは、そよ風を追い越してみよう[移動速度がすこしアップ]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>流れる風の如く相手を切り裂く術を覚えた[攻撃がアップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>風を追い抜かすことに成功！！[移動速度がアップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>あらゆる風を追い抜かし、遂に世界最速となった[移動速度が超アップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>風をも切り裂くかまいたちが攻撃に宿る！[攻撃がアップ！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>身を隠し、闇討ちする暗殺者に転職！[移動速度が超絶アップ！！]</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>神の加護で受けた僧侶に転職！[魔防が超絶×２アップ！！！]</t>
-    <phoneticPr fontId="18"/>
+    <t xml:space="preserve">名称				</t>
+  </si>
+  <si>
+    <t xml:space="preserve">攻撃力 </t>
+  </si>
+  <si>
+    <t>防御力</t>
+  </si>
+  <si>
+    <t>移動速度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初期値		</t>
+  </si>
+  <si>
+    <t>無し</t>
+  </si>
+  <si>
+    <t>踏み込み斬り</t>
+  </si>
+  <si>
+    <t>特訓の末、踏み込み切りを覚えた　　　[攻撃がすこしアップ]</t>
+  </si>
+  <si>
+    <t>疾風斬り</t>
+  </si>
+  <si>
+    <t>剣を振るスピードがだんだん早くなってきた　　　[攻撃とHPがアップ！]</t>
+  </si>
+  <si>
+    <t>重撃</t>
+  </si>
+  <si>
+    <t>攻撃をする度に筋肉増えるね！　　　[攻撃と防御とHPがアップ！]</t>
+  </si>
+  <si>
+    <t>魔力の刃</t>
+  </si>
+  <si>
+    <t>ちょっとは魔法の勉強もしておこう　　　[攻撃と魔攻が超アップ！]</t>
+  </si>
+  <si>
+    <t>豪傑の証</t>
+  </si>
+  <si>
+    <t>ムキムキボデーを　てにいれた！　　　[攻撃と防御とHPが超アップ！]</t>
+  </si>
+  <si>
+    <t>怒りの一撃</t>
+  </si>
+  <si>
+    <t>怒りを力に変える戦士に転職！　　　[攻撃とHPが超絶UP！！]</t>
+  </si>
+  <si>
+    <t>マジックショット</t>
+  </si>
+  <si>
+    <t>魔術書を読みあさってちょっと賢くなった　　　[魔攻がすこしアップ]</t>
+  </si>
+  <si>
+    <t>マジックミサイル</t>
+  </si>
+  <si>
+    <t>気がついたら魔法が進化していた！　　　[魔攻と魔防がアップ！]</t>
+  </si>
+  <si>
+    <t>マギカチャージ</t>
+  </si>
+  <si>
+    <t>魔力の高まりを感じる！　　　[魔攻とHPがアップ！]</t>
+  </si>
+  <si>
+    <t>マジカルボム</t>
+  </si>
+  <si>
+    <t>芸術は爆発だ　魔術も爆発だ！　　　[攻撃と魔攻がアップ！]</t>
+  </si>
+  <si>
+    <t>ルーンエンハンス</t>
+  </si>
+  <si>
+    <t>魔力を集中させ、攻防を一体にできた！　　　[魔攻と魔防が超アップ！]</t>
+  </si>
+  <si>
+    <t>メテオバースト</t>
+  </si>
+  <si>
+    <t>上級魔法を覚えた魔法使いに転職！　　　[魔攻が超絶×２アップ！！！]</t>
+  </si>
+  <si>
+    <t>ガードアップ</t>
+  </si>
+  <si>
+    <t>攻撃を防ぐ方法を特訓した　　　[防御がすこしアップ]</t>
+  </si>
+  <si>
+    <t>ロックウォール</t>
+  </si>
+  <si>
+    <t>石のようなガチガチボディ！！　　　[防御とHPがアップ]</t>
+  </si>
+  <si>
+    <t>アイアンシールド</t>
+  </si>
+  <si>
+    <t>身体の硬さは鉄を超越した　　　[防御とHPがアップ！]</t>
+  </si>
+  <si>
+    <t>メタルボディ</t>
+  </si>
+  <si>
+    <t>鋼を超えたハイパーボデーをゲット！　　　[攻撃と防御とHPがアップ]</t>
+  </si>
+  <si>
+    <t>頑強の意思</t>
+  </si>
+  <si>
+    <t>鍛錬の末、とうとう心まで硬くなった　　　[防御と魔防とHPが超UP！]</t>
+  </si>
+  <si>
+    <t>ザ・フォートレス</t>
+  </si>
+  <si>
+    <t>全ての攻撃を防ぐ騎士に転職！　　　[防御と魔防とHPが超絶UP！！]</t>
+  </si>
+  <si>
+    <t>マジックガード</t>
+  </si>
+  <si>
+    <t>攻撃魔法より防御魔法を勉強した　　　[魔防がすこしアップ]</t>
+  </si>
+  <si>
+    <t>マギカマッシブ</t>
+  </si>
+  <si>
+    <t>ドーピング？いえ、魔法での肉体強化です　　　[魔防とHPがアップ！]</t>
+  </si>
+  <si>
+    <t>ミラーコーティング</t>
+  </si>
+  <si>
+    <t>身体を魔力でコーティングした！　　　[防御と魔防がアップ！]</t>
+  </si>
+  <si>
+    <t>薬の知識</t>
+  </si>
+  <si>
+    <t>ふしぎなくすりを　のまされた！　　　[魔攻と魔防とHPをアップ！]</t>
+  </si>
+  <si>
+    <t>デュアルバリアー</t>
+  </si>
+  <si>
+    <t>物理にも効くバリアーを展開できた！　　　[防御と魔防が超アップ！]</t>
+  </si>
+  <si>
+    <t>ホーリーリザレクション</t>
+  </si>
+  <si>
+    <t>神の加護で受けた僧侶に転職！　　　[魔防が超絶×２アップ！！！]</t>
+  </si>
+  <si>
+    <t>そよ風</t>
+  </si>
+  <si>
+    <t>まずは、そよ風を追い越してみよう　　　[移動速度がすこしアップ]</t>
+  </si>
+  <si>
+    <t>陽炎</t>
+  </si>
+  <si>
+    <t>流れる風の如く相手を切り裂く術を覚えた　　　[攻撃がアップ！]</t>
+  </si>
+  <si>
+    <t>疾走</t>
+  </si>
+  <si>
+    <t>我、流るるが　疾風の如し　　　[移動速度がアップ！]</t>
+  </si>
+  <si>
+    <t>無影</t>
+  </si>
+  <si>
+    <t>風を切り裂くかまいたちが攻撃に宿る！　　　[攻撃がアップ！]</t>
+  </si>
+  <si>
+    <t>電光石火</t>
+  </si>
+  <si>
+    <t>ついに世界最速の勇者となった　　　　　[移動速度が超アップ！]</t>
+  </si>
+  <si>
+    <t>完全隠密</t>
+  </si>
+  <si>
+    <t>身を隠し、闇討ちする暗殺者に転職！　　　[移動速度が超絶アップ！！]</t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1263,33 +1197,33 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1310,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -1332,13 +1266,10 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1359,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <f>SUM(B4:F4)</f>
@@ -1368,7 +1299,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -1389,16 +1320,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I38" si="0">SUM(B5:F5)</f>
+        <f t="shared" ref="I5:I37" si="0">SUM(B5:F5)</f>
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1419,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -1428,7 +1359,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -1437,7 +1368,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -1449,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -1479,16 +1410,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -1509,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -1542,7 +1473,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1563,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
@@ -1572,7 +1503,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1593,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
@@ -1602,7 +1533,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1623,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
@@ -1632,7 +1563,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -1653,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
@@ -1662,7 +1593,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -1683,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
@@ -1692,7 +1623,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -1713,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
@@ -1746,7 +1677,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1767,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
@@ -1776,7 +1707,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1797,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
@@ -1806,7 +1737,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1827,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
@@ -1836,7 +1767,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -1857,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
@@ -1866,7 +1797,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1887,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
@@ -1896,7 +1827,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -1917,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
@@ -1950,7 +1881,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1971,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
@@ -1980,7 +1911,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -2001,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
@@ -2010,7 +1941,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -2031,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
@@ -2040,7 +1971,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -2061,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -2070,19 +2001,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F29">
         <v>20</v>
@@ -2091,16 +2022,16 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -2121,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
@@ -2154,7 +2085,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -2172,10 +2103,10 @@
         <v>10</v>
       </c>
       <c r="G32">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
@@ -2184,7 +2115,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -2205,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
@@ -2214,7 +2145,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -2232,10 +2163,10 @@
         <v>10</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
@@ -2244,7 +2175,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B35">
         <v>25</v>
@@ -2253,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -2265,16 +2196,16 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -2292,10 +2223,10 @@
         <v>10</v>
       </c>
       <c r="G36">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
@@ -2304,7 +2235,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B37">
         <v>30</v>
@@ -2322,10 +2253,10 @@
         <v>30</v>
       </c>
       <c r="G37">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
@@ -2354,11 +2285,11 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B39">
         <f>SUM(B2:B9)</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:F39" si="1">SUM(C2:C9)</f>
@@ -2366,7 +2297,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
@@ -2378,12 +2309,12 @@
       </c>
       <c r="G39">
         <f>SUM(B39:F39)</f>
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B40">
         <f>SUM(B2,B11:B16)</f>
@@ -2412,7 +2343,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <f>SUM(B2,B18:B23)</f>
@@ -2441,7 +2372,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <f>SUM(B2,B25:B30)</f>
@@ -2449,7 +2380,7 @@
       </c>
       <c r="C42">
         <f t="shared" ref="C42:F42" si="5">SUM(C2,C25:C30)</f>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D42">
         <f t="shared" si="5"/>
@@ -2457,7 +2388,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F42">
         <f t="shared" si="5"/>
@@ -2465,12 +2396,12 @@
       </c>
       <c r="G42">
         <f t="shared" si="3"/>
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B43">
         <f>SUM(B2,B32:B37)</f>
@@ -2482,7 +2413,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E43">
         <f t="shared" si="6"/>
@@ -2494,7 +2425,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2433,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B39" formulaRange="1"/>
+    <ignoredError sqref="B39 I4:I5" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/HuntingBrave_client/DATA/player_data.xlsx
+++ b/HuntingBrave_client/DATA/player_data.xlsx
@@ -1185,9 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1344,7 +1342,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1354,7 +1352,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1395,7 +1393,7 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1404,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1414,7 +1412,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1773,7 +1771,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1792,7 +1790,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -2178,7 +2176,7 @@
         <v>69</v>
       </c>
       <c r="B35">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -2200,7 +2198,7 @@
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -2238,16 +2236,16 @@
         <v>73</v>
       </c>
       <c r="B37">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>20</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E37">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F37">
         <v>30</v>
@@ -2260,7 +2258,7 @@
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -2293,7 +2291,7 @@
       </c>
       <c r="C39">
         <f t="shared" ref="C39:F39" si="1">SUM(C2:C9)</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
@@ -2305,11 +2303,11 @@
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="G39">
         <f>SUM(B39:F39)</f>
-        <v>549</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2351,7 +2349,7 @@
       </c>
       <c r="C41">
         <f t="shared" ref="C41:F41" si="4">SUM(C2,C18:C23)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
@@ -2367,7 +2365,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="3"/>
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -2405,7 +2403,7 @@
       </c>
       <c r="B43">
         <f>SUM(B2,B32:B37)</f>
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <f t="shared" ref="C43:F43" si="6">SUM(C2,C32:C37)</f>
@@ -2413,11 +2411,11 @@
       </c>
       <c r="D43">
         <f t="shared" si="6"/>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E43">
         <f t="shared" si="6"/>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F43">
         <f t="shared" si="6"/>
@@ -2425,7 +2423,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/HuntingBrave_client/DATA/player_data.xlsx
+++ b/HuntingBrave_client/DATA/player_data.xlsx
@@ -1185,7 +1185,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2101,7 +2103,7 @@
         <v>10</v>
       </c>
       <c r="G32">
-        <v>1.25</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H32" t="s">
         <v>64</v>
@@ -2161,7 +2163,7 @@
         <v>10</v>
       </c>
       <c r="G34">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="s">
         <v>68</v>
@@ -2221,7 +2223,7 @@
         <v>10</v>
       </c>
       <c r="G36">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="s">
         <v>72</v>
@@ -2251,7 +2253,7 @@
         <v>30</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="s">
         <v>74</v>

--- a/HuntingBrave_client/DATA/player_data.xlsx
+++ b/HuntingBrave_client/DATA/player_data.xlsx
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1362,7 +1362,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1392,7 +1392,7 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1422,7 +1422,7 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B39">
         <f>SUM(B2:B9)</f>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C39">
         <f t="shared" ref="C39:F39" si="1">SUM(C2:C9)</f>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="G39">
         <f>SUM(B39:F39)</f>
-        <v>524</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -2431,7 +2431,7 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B39 I4:I5" formulaRange="1"/>
   </ignoredErrors>
